--- a/F405_pill_V1.11/MANUFACTURE/F405_PILL_BOM.xlsx
+++ b/F405_pill_V1.11/MANUFACTURE/F405_PILL_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owhite/kicad/F405_pill/F405_pill_V1.11/MANUFACTURE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F6197C-43B8-4648-A39C-779CE5CC7799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A447523-2117-1840-92A8-A63D5653537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44700" yWindow="5800" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>Comment</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>C962635</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -169,15 +166,6 @@
     <t>C165948</t>
   </si>
   <si>
-    <t>Jumper_2_Open</t>
-  </si>
-  <si>
-    <t>JP1,JP2</t>
-  </si>
-  <si>
-    <t>Connector:my_2_pin</t>
-  </si>
-  <si>
     <t>39n</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t>C6952</t>
-  </si>
-  <si>
     <t>LM1117-3.3</t>
   </si>
   <si>
@@ -308,13 +293,19 @@
   </si>
   <si>
     <t>C2,C4,C7,C10,C12,C17,C18,C19, C23</t>
+  </si>
+  <si>
+    <t>C1952781</t>
+  </si>
+  <si>
+    <t>C12084</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,6 +439,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -791,8 +788,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1148,15 +1146,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1225,158 +1224,161 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="D5" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1402,77 +1404,77 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
@@ -1488,64 +1490,50 @@
       <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
-        <v>78</v>
+      <c r="D24" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
